--- a/Miklos/TravellingSalesmen_consolemode/TravellingSalesmenConsole/TravellingSalesmenConsole/RawData/Outputs/Kicsik tesztje.xlsx
+++ b/Miklos/TravellingSalesmen_consolemode/TravellingSalesmenConsole/TravellingSalesmenConsole/RawData/Outputs/Kicsik tesztje.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikilos\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Single" sheetId="2" r:id="rId1"/>
     <sheet name="Mutiple" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>bruteforce</t>
   </si>
@@ -55,9 +50,6 @@
   </si>
   <si>
     <t>12n2</t>
-  </si>
-  <si>
-    <t>13r</t>
   </si>
   <si>
     <t>5_0</t>
@@ -75,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -176,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -211,7 +203,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,15 +391,16 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -437,6 +430,12 @@
       <c r="C3">
         <v>2255</v>
       </c>
+      <c r="D3">
+        <v>2065.1770000000001</v>
+      </c>
+      <c r="E3">
+        <v>2001.7360000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -445,6 +444,15 @@
       <c r="B4" s="2">
         <v>2742</v>
       </c>
+      <c r="C4">
+        <v>1818.2560000000001</v>
+      </c>
+      <c r="D4">
+        <v>1632.194</v>
+      </c>
+      <c r="E4">
+        <v>1593.7449999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -453,13 +461,31 @@
       <c r="B5" s="2">
         <v>3366.1880000000001</v>
       </c>
+      <c r="C5">
+        <v>1869.606</v>
+      </c>
+      <c r="D5">
+        <v>1783.827</v>
+      </c>
+      <c r="E5">
+        <v>1622.577</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>1621.58</v>
+        <v>1920.67265</v>
+      </c>
+      <c r="C6">
+        <v>1710.335</v>
+      </c>
+      <c r="D6">
+        <v>1808.2809999999999</v>
+      </c>
+      <c r="E6">
+        <v>1660.8430000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,7 +493,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>4313.268</v>
+        <v>1621.58232</v>
+      </c>
+      <c r="C7">
+        <v>1833.567</v>
+      </c>
+      <c r="D7">
+        <v>1467.251</v>
+      </c>
+      <c r="E7">
+        <v>1413.415</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -497,6 +532,12 @@
       <c r="C11">
         <v>4.1029999999999998</v>
       </c>
+      <c r="D11">
+        <v>2.9622329999999999</v>
+      </c>
+      <c r="E11">
+        <v>7.9959899999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -505,6 +546,15 @@
       <c r="B12" s="2">
         <v>1834</v>
       </c>
+      <c r="C12">
+        <v>8.7519299999999998</v>
+      </c>
+      <c r="D12">
+        <v>2.8047</v>
+      </c>
+      <c r="E12">
+        <v>7.9020000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -513,6 +563,15 @@
       <c r="B13">
         <v>20811</v>
       </c>
+      <c r="C13">
+        <v>8.1936499999999999</v>
+      </c>
+      <c r="D13">
+        <v>3.2871969999999999</v>
+      </c>
+      <c r="E13">
+        <v>9.8187999999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -521,6 +580,15 @@
       <c r="B14">
         <v>237622.5</v>
       </c>
+      <c r="C14">
+        <v>12.9072</v>
+      </c>
+      <c r="D14">
+        <v>3.3621500000000002</v>
+      </c>
+      <c r="E14">
+        <v>11.621639999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -529,14 +597,18 @@
       <c r="B15">
         <v>233053</v>
       </c>
+      <c r="C15">
+        <v>12.95571</v>
+      </c>
+      <c r="D15">
+        <v>3.1856469999999999</v>
+      </c>
+      <c r="E15">
+        <v>18.02441</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>264585</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -548,17 +620,17 @@
   <dimension ref="A2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -572,9 +644,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>781.50729999999999</v>
@@ -582,10 +654,13 @@
       <c r="C3">
         <v>781.51</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>781.85059999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>793.76300000000003</v>
@@ -593,10 +668,13 @@
       <c r="C4">
         <v>723.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>723.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>631.50729999999999</v>
@@ -604,10 +682,13 @@
       <c r="C5">
         <v>1073.44</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>670.96870000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>615.68539999999996</v>
@@ -615,12 +696,15 @@
       <c r="C6">
         <v>647.72299999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>665.58349999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -634,9 +718,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>8.2337000000000007</v>
@@ -644,10 +728,13 @@
       <c r="C9">
         <v>2.2450000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2.9314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>20.2608</v>
@@ -655,10 +742,13 @@
       <c r="C10">
         <v>2.5379999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2.6602199999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>243903</v>
@@ -666,10 +756,13 @@
       <c r="C11">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>7.3506999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>250149</v>
@@ -677,32 +770,35 @@
       <c r="C12">
         <v>3.0880000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>7.2972049999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" s="3"/>
     </row>
   </sheetData>

--- a/Miklos/TravellingSalesmen_consolemode/TravellingSalesmenConsole/TravellingSalesmenConsole/RawData/Outputs/Kicsik tesztje.xlsx
+++ b/Miklos/TravellingSalesmen_consolemode/TravellingSalesmenConsole/TravellingSalesmenConsole/RawData/Outputs/Kicsik tesztje.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikilos\Documents\BME_orak\Felev05\Témalabor\Miklos\TravellingSalesmen_consolemode\TravellingSalesmenConsole\TravellingSalesmenConsole\RawData\Outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Single" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
   <si>
     <t>bruteforce</t>
   </si>
@@ -62,12 +67,57 @@
   </si>
   <si>
     <t>9h_4</t>
+  </si>
+  <si>
+    <t>Eredmény</t>
+  </si>
+  <si>
+    <t>Csúcsszám</t>
+  </si>
+  <si>
+    <t>Ügynökszám</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Futási idő</t>
+  </si>
+  <si>
+    <t>Futási idő [ms]</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>Mohó</t>
+  </si>
+  <si>
+    <t>Genetikus</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -89,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -97,16 +147,173 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -388,22 +595,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -436,8 +643,15 @@
       <c r="E3">
         <v>2001.7360000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -453,8 +667,23 @@
       <c r="E4">
         <v>1593.7449999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -470,8 +699,17 @@
       <c r="E5">
         <v>1622.577</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -487,8 +725,17 @@
       <c r="E6">
         <v>1660.8430000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -504,304 +751,521 @@
       <c r="E7">
         <v>1413.415</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1829</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>4.1029999999999998</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>2.9622329999999999</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>7.9959899999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="G12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>1834</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>8.7519299999999998</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>2.8047</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>7.9020000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="G13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>20811</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>8.1936499999999999</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>3.2871969999999999</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>9.8187999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>237622.5</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>12.9072</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>3.3621500000000002</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>11.621639999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="G15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>233053</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>12.95571</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>3.1856469999999999</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>18.02441</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G11:K11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11">
         <v>781.50729999999999</v>
       </c>
-      <c r="C3">
+      <c r="E4" s="11">
         <v>781.51</v>
       </c>
-      <c r="D3">
+      <c r="F4" s="11">
         <v>781.85059999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>793.76300000000003</v>
-      </c>
-      <c r="C4">
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11">
         <v>723.61</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="11">
         <v>723.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F5" s="11">
+        <v>723.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11">
         <v>631.50729999999999</v>
       </c>
-      <c r="C5">
+      <c r="E6" s="11">
         <v>1073.44</v>
       </c>
-      <c r="D5">
+      <c r="F6" s="11">
         <v>670.96870000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13">
         <v>615.68539999999996</v>
       </c>
-      <c r="C6">
+      <c r="E7" s="13">
         <v>647.72299999999996</v>
       </c>
-      <c r="D6">
+      <c r="F7" s="13">
         <v>665.58349999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16">
         <v>8.2337000000000007</v>
       </c>
-      <c r="C9">
+      <c r="E11" s="16">
         <v>2.2450000000000001</v>
       </c>
-      <c r="D9">
+      <c r="F11" s="16">
         <v>2.9314</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="16">
         <v>20.2608</v>
       </c>
-      <c r="C10">
+      <c r="E12" s="16">
         <v>2.5379999999999998</v>
       </c>
-      <c r="D10">
+      <c r="F12" s="16">
         <v>2.6602199999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
-        <v>243903</v>
-      </c>
-      <c r="C11">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="16">
+        <v>243903.685</v>
+      </c>
+      <c r="E13" s="16">
         <v>2.71</v>
       </c>
-      <c r="D11">
+      <c r="F13" s="16">
         <v>7.3506999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
-        <v>250149</v>
-      </c>
-      <c r="C12">
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="17">
+        <v>250149.02050000001</v>
+      </c>
+      <c r="E14" s="17">
         <v>3.0880000000000001</v>
       </c>
-      <c r="D12">
+      <c r="F14" s="17">
         <v>7.2972049999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Miklos/TravellingSalesmen_consolemode/TravellingSalesmenConsole/TravellingSalesmenConsole/RawData/Outputs/Kicsik tesztje.xlsx
+++ b/Miklos/TravellingSalesmen_consolemode/TravellingSalesmenConsole/TravellingSalesmenConsole/RawData/Outputs/Kicsik tesztje.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikilos\Documents\BME_orak\Felev05\Témalabor\Miklos\TravellingSalesmen_consolemode\TravellingSalesmenConsole\TravellingSalesmenConsole\RawData\Outputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776"/>
   </bookViews>
   <sheets>
     <sheet name="Single" sheetId="2" r:id="rId1"/>
@@ -117,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -264,6 +259,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,39 +308,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,16 +593,16 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -627,12 +622,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>2214</v>
+        <v>1922.4588000000001</v>
       </c>
       <c r="C3">
         <v>2255</v>
@@ -643,20 +638,20 @@
       <c r="E3">
         <v>2001.7360000000001</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>2742</v>
+        <v>1543.66083</v>
       </c>
       <c r="C4">
         <v>1818.2560000000001</v>
@@ -667,28 +662,28 @@
       <c r="E4">
         <v>1593.7449999999999</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>3366.1880000000001</v>
+        <v>1521.0382</v>
       </c>
       <c r="C5">
         <v>1869.606</v>
@@ -699,22 +694,22 @@
       <c r="E5">
         <v>1622.577</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>1920.67265</v>
+        <v>1489.528137</v>
       </c>
       <c r="C6">
         <v>1710.335</v>
@@ -725,22 +720,22 @@
       <c r="E6">
         <v>1660.8430000000001</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>1621.58232</v>
+        <v>1410</v>
       </c>
       <c r="C7">
         <v>1833.567</v>
@@ -751,48 +746,48 @@
       <c r="E7">
         <v>1413.415</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="12" t="s">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -808,20 +803,20 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1829</v>
+        <v>2219.7219</v>
       </c>
       <c r="C12">
         <v>4.1029999999999998</v>
@@ -832,28 +827,28 @@
       <c r="E12">
         <v>7.9959899999999999</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>1834</v>
+        <v>2176.0682000000002</v>
       </c>
       <c r="C13">
         <v>8.7519299999999998</v>
@@ -864,22 +859,22 @@
       <c r="E13">
         <v>7.9020000000000001</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>20811</v>
+        <v>20419.965199999999</v>
       </c>
       <c r="C14">
         <v>8.1936499999999999</v>
@@ -890,22 +885,22 @@
       <c r="E14">
         <v>9.8187999999999995</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>237622.5</v>
+        <v>221696.80350000001</v>
       </c>
       <c r="C15">
         <v>12.9072</v>
@@ -916,22 +911,22 @@
       <c r="E15">
         <v>11.621639999999999</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B16">
-        <v>233053</v>
+        <v>214284.38</v>
       </c>
       <c r="C16">
         <v>12.95571</v>
@@ -942,28 +937,28 @@
       <c r="E16">
         <v>18.02441</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G17" s="12" t="s">
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -983,281 +978,281 @@
       <selection activeCell="B2" sqref="B2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="6" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="5">
         <v>781.50729999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="5">
         <v>781.51</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>781.85059999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="5">
         <v>723.61</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="5">
         <v>723.61</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>723.61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="5">
         <v>631.50729999999999</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="5">
         <v>1073.44</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>670.96870000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="7">
         <v>615.68539999999996</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="7">
         <v>647.72299999999996</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="7">
         <v>665.58349999999996</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="10">
         <v>8.2337000000000007</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="10">
         <v>2.2450000000000001</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="10">
         <v>2.9314</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="10">
         <v>20.2608</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="10">
         <v>2.5379999999999998</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="10">
         <v>2.6602199999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="10">
         <v>243903.685</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="10">
         <v>2.71</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="10">
         <v>7.3506999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="11">
         <v>250149.02050000001</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="11">
         <v>3.0880000000000001</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="11">
         <v>7.2972049999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I37" s="3"/>
     </row>
   </sheetData>

--- a/Miklos/TravellingSalesmen_consolemode/TravellingSalesmenConsole/TravellingSalesmenConsole/RawData/Outputs/Kicsik tesztje.xlsx
+++ b/Miklos/TravellingSalesmen_consolemode/TravellingSalesmenConsole/TravellingSalesmenConsole/RawData/Outputs/Kicsik tesztje.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikilos\Documents\BME_orak\Felev05\Témalabor\Miklos\TravellingSalesmen_consolemode\TravellingSalesmenConsole\TravellingSalesmenConsole\RawData\Outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Single" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>bruteforce</t>
   </si>
@@ -107,12 +112,15 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>Christofides</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -134,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -248,11 +256,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,6 +331,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -582,7 +612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,22 +620,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K18"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.5546875" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -622,21 +651,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1922.4588000000001</v>
-      </c>
-      <c r="C3">
-        <v>2255</v>
-      </c>
-      <c r="D3">
-        <v>2065.1770000000001</v>
-      </c>
-      <c r="E3">
-        <v>2001.7360000000001</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>14</v>
@@ -644,24 +661,13 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>1543.66083</v>
-      </c>
-      <c r="C4">
-        <v>1818.2560000000001</v>
-      </c>
-      <c r="D4">
-        <v>1632.194</v>
-      </c>
-      <c r="E4">
-        <v>1593.7449999999999</v>
-      </c>
       <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
@@ -672,91 +678,85 @@
         <v>23</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>1521.0382</v>
-      </c>
-      <c r="C5">
-        <v>1869.606</v>
-      </c>
-      <c r="D5">
-        <v>1783.827</v>
-      </c>
-      <c r="E5">
-        <v>1622.577</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I5" s="22">
+        <v>1922.4588000000001</v>
+      </c>
+      <c r="J5" s="22">
+        <v>2255</v>
+      </c>
+      <c r="K5" s="22">
+        <v>2065.1770000000001</v>
+      </c>
+      <c r="L5" s="22">
+        <v>2001.7360000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>1489.528137</v>
-      </c>
-      <c r="C6">
-        <v>1710.335</v>
-      </c>
-      <c r="D6">
-        <v>1808.2809999999999</v>
-      </c>
-      <c r="E6">
-        <v>1660.8430000000001</v>
-      </c>
       <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I6" s="23">
+        <v>1543.66083</v>
+      </c>
+      <c r="J6" s="23">
+        <v>1818.2560000000001</v>
+      </c>
+      <c r="K6" s="23">
+        <v>1632.194</v>
+      </c>
+      <c r="L6" s="23">
+        <v>1593.7449999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
-        <v>1410</v>
-      </c>
-      <c r="C7">
-        <v>1833.567</v>
-      </c>
-      <c r="D7">
-        <v>1467.251</v>
-      </c>
-      <c r="E7">
-        <v>1413.415</v>
-      </c>
       <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I7" s="23">
+        <v>1521.0382</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1869.606</v>
+      </c>
+      <c r="K7" s="23">
+        <v>1783.827</v>
+      </c>
+      <c r="L7" s="23">
+        <v>1622.577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="G8" s="4" t="s">
@@ -765,29 +765,48 @@
       <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I8" s="23">
+        <v>1489.528137</v>
+      </c>
+      <c r="J8" s="23">
+        <v>1710.335</v>
+      </c>
+      <c r="K8" s="23">
+        <v>1808.2809999999999</v>
+      </c>
+      <c r="L8" s="23">
+        <v>1660.8430000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="24">
+        <v>1410</v>
+      </c>
+      <c r="J9" s="24">
+        <v>1833.567</v>
+      </c>
+      <c r="K9" s="24">
+        <v>1467.251</v>
+      </c>
+      <c r="L9" s="24">
+        <v>1413.415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -809,24 +828,13 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2219.7219</v>
-      </c>
-      <c r="C12">
-        <v>4.1029999999999998</v>
-      </c>
-      <c r="D12">
-        <v>2.9622329999999999</v>
-      </c>
-      <c r="E12">
-        <v>7.9959899999999999</v>
-      </c>
       <c r="G12" s="13" t="s">
         <v>15</v>
       </c>
@@ -837,136 +845,137 @@
         <v>23</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
-        <v>2176.0682000000002</v>
-      </c>
-      <c r="C13">
-        <v>8.7519299999999998</v>
-      </c>
-      <c r="D13">
-        <v>2.8047</v>
-      </c>
-      <c r="E13">
-        <v>7.9020000000000001</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I13" s="25">
+        <v>2219.7219</v>
+      </c>
+      <c r="J13" s="25">
+        <v>4.1029999999999998</v>
+      </c>
+      <c r="K13" s="25">
+        <v>2.9622329999999999</v>
+      </c>
+      <c r="L13" s="25">
+        <v>7.9959899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
-        <v>20419.965199999999</v>
-      </c>
-      <c r="C14">
-        <v>8.1936499999999999</v>
-      </c>
-      <c r="D14">
-        <v>3.2871969999999999</v>
-      </c>
-      <c r="E14">
-        <v>9.8187999999999995</v>
-      </c>
       <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I14" s="26">
+        <v>2176.0682000000002</v>
+      </c>
+      <c r="J14" s="26">
+        <v>8.7519299999999998</v>
+      </c>
+      <c r="K14" s="26">
+        <v>2.8047</v>
+      </c>
+      <c r="L14" s="26">
+        <v>7.9020000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
-        <v>221696.80350000001</v>
-      </c>
-      <c r="C15">
-        <v>12.9072</v>
-      </c>
-      <c r="D15">
-        <v>3.3621500000000002</v>
-      </c>
-      <c r="E15">
-        <v>11.621639999999999</v>
-      </c>
       <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I15" s="26">
+        <v>20419.965199999999</v>
+      </c>
+      <c r="J15" s="26">
+        <v>8.1936499999999999</v>
+      </c>
+      <c r="K15" s="26">
+        <v>3.2871969999999999</v>
+      </c>
+      <c r="L15" s="26">
+        <v>9.8187999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
-        <v>214284.38</v>
-      </c>
-      <c r="C16">
-        <v>12.95571</v>
-      </c>
-      <c r="D16">
-        <v>3.1856469999999999</v>
-      </c>
-      <c r="E16">
-        <v>18.02441</v>
-      </c>
       <c r="G16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I16" s="26">
+        <v>221696.80350000001</v>
+      </c>
+      <c r="J16" s="26">
+        <v>12.9072</v>
+      </c>
+      <c r="K16" s="26">
+        <v>3.3621500000000002</v>
+      </c>
+      <c r="L16" s="26">
+        <v>11.621639999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="I17" s="27">
+        <v>214284.38</v>
+      </c>
+      <c r="J17" s="27">
+        <v>12.95571</v>
+      </c>
+      <c r="K17" s="27">
+        <v>3.1856469999999999</v>
+      </c>
+      <c r="L17" s="27">
+        <v>18.02441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -978,14 +987,14 @@
       <selection activeCell="B2" sqref="B2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="6" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
@@ -994,7 +1003,7 @@
       <c r="E2" s="16"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1014,7 +1023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>781.85059999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>723.61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1083,7 @@
         <v>670.96870000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1102,7 +1111,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="18" t="s">
         <v>22</v>
@@ -1112,7 +1121,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>2.9314</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>2.6602199999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>7.3506999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,47 +1221,47 @@
         <v>7.2972049999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37" s="3"/>
     </row>
   </sheetData>
